--- a/biology/Zoologie/Cane_Corso/Cane_Corso.xlsx
+++ b/biology/Zoologie/Cane_Corso/Cane_Corso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cane corso, de son vrai nom italien « Cane corso italiano » (« cane » signifiant « chien » et  « corso » pouvant signifier « cours »[1] ou bien « corse »[2]), est une race de chiens molosses, d'origine italienne, utilisés comme chiens de garde, de défense, de police et de pistage[3].
+Le cane corso, de son vrai nom italien « Cane corso italiano » (« cane » signifiant « chien » et  « corso » pouvant signifier « cours » ou bien « corse »), est une race de chiens molosses, d'origine italienne, utilisés comme chiens de garde, de défense, de police et de pistage.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un chien de ferme aux multiples fonctions, garde, conduite de bétail, chasse à l'ours et au sanglier et, en des temps plus éloignés, chien de guerre avec la légion romaine et chien de jeux romains contre le lion. La race a été reconnue 14e race italienne et n'est plus en voie de disparition. 
 Son proche cousin est un autre dogue italien : le mâtin de Naples, plus lourd et beaucoup moins souple. Au milieu du XXe siècle, à la reconnaissance du mâtin napolitain, son autre nom était aussi cane corso. Son origine provient de l'époque de la Rome antique : le cane corso était si fort et si dévoué qu'il était utilisé pour repousser les lions dans leur quartier après leur performance dans le Colisée. Par la suite, il servait à garder le gros bétail de ferme dans les domaines agricoles d'Italie du sud.
@@ -544,7 +558,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cane corso est un excellent chien de garde, qui surveille son territoire d'une façon discrète, mais qui est toujours vigilant. C'est un chien calme, loyal et extrêmement fidèle. Il a besoin de place pour jouer et se défouler car il est assez actif. Une vie en appartement est donc possible à partir du moment où il bénéficie d'heures de jeux et de longues promenades avec ses maîtres. C'est un chien équilibré mais qui peut se montrer agressif avec les autres congénères mâles. La puissance de sa mâchoire est impressionnante et atteint les 700 psi de pression soit plus ou moins 50 kgf/cm2 ; il se place à ce titre juste derrière le Berger d'Anatolie (740 psi).
 </t>
@@ -575,7 +591,9 @@
           <t>Description physique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cane corso est un molosse athlétique, musclé, solide et fort. Sa truffe est toujours de couleur noire, ses oreilles sont triangulaires et pendantes, elles ont souvent été raccourcies avant l'interdiction de la coupe. Son poil est court, serré et brillant. Sa robe peut être noire, gris-plomb, gris-ardoise, gris-clair, fauve clair ou foncé, bringée ou noir bringé. Les sujets fauves ou bringés ont un masque noir ou gris sur le museau. Une petite tache blanche est admise sur le poitrail. Selon le standard officiel, le mâle pèse de 45 à 50 kg, pour une taille au garrot comprise entre 64 et 68 cm, et la femelle entre 40 et 45 kg, pour une taille au garrot comprise entre 60 et 64 cm, avec une  tolérance de plus ou moins 2 cm pour les tailles sa queue est longue mais avant que l'on ne l'interdise elle était très souvent coupée.
 </t>
@@ -606,11 +624,13 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme la plupart des chiens de grande taille, le cane corso peut être sujet à la dysplasie de la hanche et du coude[4], ainsi qu'au syndrome de dilatation-torsion de l’estomac[5].
-L’espérance de vie du cane corso en bonne santé peut aller jusqu’à 12 ans[6].
-Lorsqu'il est adulte, le poids de ce chien varie de 40 à 45 kilos pour une femelle pour une taille de 60 à 64 cm, et de 44 à 50 kilos pour un mâle pour une taille de 64 à 68 cm[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des chiens de grande taille, le cane corso peut être sujet à la dysplasie de la hanche et du coude, ainsi qu'au syndrome de dilatation-torsion de l’estomac.
+L’espérance de vie du cane corso en bonne santé peut aller jusqu’à 12 ans.
+Lorsqu'il est adulte, le poids de ce chien varie de 40 à 45 kilos pour une femelle pour une taille de 60 à 64 cm, et de 44 à 50 kilos pour un mâle pour une taille de 64 à 68 cm.
 </t>
         </is>
       </c>
